--- a/docs/WeeklyPlans/Tasks_latest.xlsx
+++ b/docs/WeeklyPlans/Tasks_latest.xlsx
@@ -1470,13 +1470,17 @@
       </c>
       <c r="C5" s="24" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="D5" s="24" t="n"/>
       <c r="E5" s="24" t="n"/>
       <c r="F5" s="24" t="n"/>
-      <c r="G5" s="24" t="n"/>
+      <c r="G5" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H5" s="24" t="n"/>
       <c r="I5" s="24" t="n"/>
       <c r="J5" s="24" t="n"/>
@@ -1505,14 +1509,18 @@
 and unknown items twice a week</t>
         </is>
       </c>
-      <c r="C6" s="24" t="n"/>
+      <c r="C6" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D6" s="24" t="n"/>
       <c r="E6" s="24" t="n"/>
       <c r="F6" s="24" t="n"/>
       <c r="G6" s="24" t="n"/>
       <c r="H6" s="24" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="I6" s="24" t="n"/>
@@ -1542,7 +1550,11 @@
         </is>
       </c>
       <c r="C7" s="24" t="n"/>
-      <c r="D7" s="24" t="n"/>
+      <c r="D7" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="E7" s="24" t="n"/>
       <c r="F7" s="24" t="n"/>
       <c r="G7" s="24" t="n"/>
@@ -1552,7 +1564,7 @@
       <c r="K7" s="24" t="n"/>
       <c r="L7" s="24" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="M7" s="24" t="n"/>
@@ -1588,10 +1600,14 @@
       <c r="J8" s="24" t="n"/>
       <c r="K8" s="24" t="n"/>
       <c r="L8" s="24" t="n"/>
-      <c r="M8" s="24" t="n"/>
+      <c r="M8" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="N8" s="24" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="O8" s="1" t="n"/>
@@ -1620,14 +1636,18 @@
       <c r="E9" s="24" t="n"/>
       <c r="F9" s="24" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="G9" s="24" t="n"/>
       <c r="H9" s="24" t="n"/>
       <c r="I9" s="24" t="n"/>
       <c r="J9" s="24" t="n"/>
-      <c r="K9" s="24" t="n"/>
+      <c r="K9" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L9" s="24" t="n"/>
       <c r="M9" s="24" t="n"/>
       <c r="N9" s="24" t="n"/>
@@ -1655,7 +1675,11 @@
       <c r="C10" s="24" t="n"/>
       <c r="D10" s="24" t="n"/>
       <c r="E10" s="24" t="n"/>
-      <c r="F10" s="24" t="n"/>
+      <c r="F10" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="G10" s="24" t="n"/>
       <c r="H10" s="24" t="n"/>
       <c r="I10" s="24" t="n"/>
@@ -1664,7 +1688,7 @@
       <c r="L10" s="24" t="n"/>
       <c r="M10" s="24" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="N10" s="24" t="n"/>
@@ -1691,7 +1715,11 @@
       </c>
       <c r="C11" s="24" t="n"/>
       <c r="D11" s="24" t="n"/>
-      <c r="E11" s="24" t="n"/>
+      <c r="E11" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="F11" s="24" t="n"/>
       <c r="G11" s="24" t="n"/>
       <c r="H11" s="24" t="n"/>
@@ -1699,7 +1727,7 @@
       <c r="J11" s="24" t="n"/>
       <c r="K11" s="24" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="L11" s="24" t="n"/>
@@ -1796,14 +1824,22 @@
       <c r="N17" s="52" t="n"/>
     </row>
     <row r="18" ht="14.25" customHeight="1" s="29" thickBot="1">
-      <c r="B18" s="16" t="n"/>
+      <c r="B18" s="16" t="inlineStr">
+        <is>
+          <t>2024-07-15</t>
+        </is>
+      </c>
       <c r="C18" s="15" t="n"/>
       <c r="D18" s="15" t="n"/>
       <c r="E18" s="15" t="n"/>
       <c r="F18" s="15" t="n"/>
       <c r="G18" s="15" t="n"/>
       <c r="H18" s="15" t="n"/>
-      <c r="I18" s="36" t="n"/>
+      <c r="I18" s="36" t="inlineStr">
+        <is>
+          <t>Zewa</t>
+        </is>
+      </c>
       <c r="J18" s="52" t="n"/>
       <c r="K18" s="52" t="n"/>
       <c r="L18" s="52" t="n"/>

--- a/docs/WeeklyPlans/Tasks_latest.xlsx
+++ b/docs/WeeklyPlans/Tasks_latest.xlsx
@@ -1478,14 +1478,18 @@
       <c r="F5" s="24" t="n"/>
       <c r="G5" s="24" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H5" s="24" t="n"/>
       <c r="I5" s="24" t="n"/>
       <c r="J5" s="24" t="n"/>
       <c r="K5" s="24" t="n"/>
-      <c r="L5" s="24" t="n"/>
+      <c r="L5" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="M5" s="24" t="n"/>
       <c r="N5" s="24" t="n"/>
       <c r="O5" s="1" t="n"/>
@@ -1511,7 +1515,7 @@
       </c>
       <c r="C6" s="24" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="D6" s="24" t="n"/>
@@ -1525,7 +1529,11 @@
       </c>
       <c r="I6" s="24" t="n"/>
       <c r="J6" s="24" t="n"/>
-      <c r="K6" s="24" t="n"/>
+      <c r="K6" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L6" s="24" t="n"/>
       <c r="M6" s="24" t="n"/>
       <c r="N6" s="24" t="n"/>
@@ -1552,13 +1560,17 @@
       <c r="C7" s="24" t="n"/>
       <c r="D7" s="24" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E7" s="24" t="n"/>
       <c r="F7" s="24" t="n"/>
       <c r="G7" s="24" t="n"/>
-      <c r="H7" s="24" t="n"/>
+      <c r="H7" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I7" s="24" t="n"/>
       <c r="J7" s="24" t="n"/>
       <c r="K7" s="24" t="n"/>
@@ -1597,12 +1609,16 @@
       <c r="G8" s="24" t="n"/>
       <c r="H8" s="24" t="n"/>
       <c r="I8" s="24" t="n"/>
-      <c r="J8" s="24" t="n"/>
+      <c r="J8" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K8" s="24" t="n"/>
       <c r="L8" s="24" t="n"/>
       <c r="M8" s="24" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="N8" s="24" t="inlineStr">
@@ -1631,7 +1647,11 @@
 Return deposit from "Pfand" box *</t>
         </is>
       </c>
-      <c r="C9" s="24" t="n"/>
+      <c r="C9" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D9" s="24" t="n"/>
       <c r="E9" s="24" t="n"/>
       <c r="F9" s="24" t="inlineStr">
@@ -1645,7 +1665,7 @@
       <c r="J9" s="24" t="n"/>
       <c r="K9" s="24" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="L9" s="24" t="n"/>
@@ -1677,10 +1697,14 @@
       <c r="E10" s="24" t="n"/>
       <c r="F10" s="24" t="inlineStr">
         <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="G10" s="24" t="inlineStr">
+        <is>
           <t>X</t>
         </is>
       </c>
-      <c r="G10" s="24" t="n"/>
       <c r="H10" s="24" t="n"/>
       <c r="I10" s="24" t="n"/>
       <c r="J10" s="24" t="n"/>
@@ -1717,10 +1741,14 @@
       <c r="D11" s="24" t="n"/>
       <c r="E11" s="24" t="inlineStr">
         <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F11" s="24" t="inlineStr">
+        <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F11" s="24" t="n"/>
       <c r="G11" s="24" t="n"/>
       <c r="H11" s="24" t="n"/>
       <c r="I11" s="24" t="n"/>
@@ -1847,14 +1875,22 @@
       <c r="N18" s="52" t="n"/>
     </row>
     <row r="19" ht="14.25" customHeight="1" s="29" thickBot="1">
-      <c r="B19" s="36" t="n"/>
+      <c r="B19" s="36" t="inlineStr">
+        <is>
+          <t>2024-07-15</t>
+        </is>
+      </c>
       <c r="C19" s="15" t="n"/>
       <c r="D19" s="15" t="n"/>
       <c r="E19" s="15" t="n"/>
       <c r="F19" s="15" t="n"/>
       <c r="G19" s="15" t="n"/>
       <c r="H19" s="15" t="n"/>
-      <c r="I19" s="36" t="n"/>
+      <c r="I19" s="36" t="inlineStr">
+        <is>
+          <t>Spüli</t>
+        </is>
+      </c>
       <c r="J19" s="52" t="n"/>
       <c r="K19" s="52" t="n"/>
       <c r="L19" s="52" t="n"/>
